--- a/EuroSPI 2021 - Tables.xlsx
+++ b/EuroSPI 2021 - Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemedellin-my.sharepoint.com/personal/mcgomez_udem_edu_co/Documents/01-2021/Publicaciones/EuroSPI 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="666" documentId="8_{297E11B2-AB2A-4772-B069-56C7DB1B14AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{116DEB34-6AEB-40AE-A027-CB6B3DA2AA4C}"/>
+  <xr:revisionPtr revIDLastSave="669" documentId="8_{297E11B2-AB2A-4772-B069-56C7DB1B14AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C37FC388-E044-4423-A67B-E9064B9C0DCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="4" xr2:uid="{35809E27-57BC-4CFB-A343-6971538FB7E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="3" xr2:uid="{35809E27-57BC-4CFB-A343-6971538FB7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Cause category template" sheetId="1" r:id="rId1"/>
@@ -1082,16 +1082,16 @@
     </r>
   </si>
   <si>
-    <t>Table 3. Assessment of causes and gamification principles</t>
-  </si>
-  <si>
     <t>Template of adopted gamification principles</t>
   </si>
   <si>
-    <t>Table 4. Matrix of the relationship between models and gamification principles</t>
+    <t>Table 4. Assessment of causes and gamification principles</t>
   </si>
   <si>
-    <t xml:space="preserve"> Table 5. Table of results synthesis</t>
+    <t>Table 5. Matrix of the relationship between models and gamification principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Table 6. Table of results synthesis</t>
   </si>
 </sst>
 </file>
@@ -1920,11 +1920,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1950,12 +1945,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1968,10 +1968,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1984,8 +1987,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1995,15 +2004,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2642,7 +2642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C499AC1C-A86E-4E5F-8674-5B4A40901B4C}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -2657,17 +2657,17 @@
   <sheetData>
     <row r="1" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="85"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2740,14 +2740,14 @@
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="89"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="85" t="s">
         <v>56</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2755,19 +2755,19 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="89"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="89"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="85" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -2775,19 +2775,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="89"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="89"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="85" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -2795,19 +2795,19 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="89"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="89"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="85" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -2815,19 +2815,19 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="89"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="89"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="85" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -2835,13 +2835,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="23" t="s">
         <v>75</v>
       </c>
@@ -2861,10 +2861,10 @@
       <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="91"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,10 +2914,10 @@
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="93"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
@@ -3030,14 +3030,14 @@
       <c r="C52" s="18"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="95" t="s">
+      <c r="B53" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="91"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="82" t="s">
+      <c r="B54" s="93" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="29" t="s">
@@ -3045,44 +3045,44 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="96"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E55" s="28"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="96"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="96"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="96"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="96"/>
+      <c r="B59" s="94"/>
       <c r="C59" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="97"/>
+      <c r="B60" s="95"/>
       <c r="C60" s="31" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="93" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="29" t="s">
@@ -3090,43 +3090,43 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="83"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="83"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="83"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="83"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="83"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="83"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="84"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="31" t="s">
         <v>111</v>
       </c>
@@ -3180,14 +3180,14 @@
       <c r="C76" s="14"/>
     </row>
     <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="86" t="s">
+      <c r="B77" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="87"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="15"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="82" t="s">
+      <c r="B78" s="93" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="29" t="s">
@@ -3195,25 +3195,25 @@
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="83"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="30" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="83"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="34" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="84"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="31" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="82" t="s">
+      <c r="B82" s="93" t="s">
         <v>125</v>
       </c>
       <c r="C82" s="29" t="s">
@@ -3221,13 +3221,13 @@
       </c>
     </row>
     <row r="83" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="84"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="82" t="s">
+      <c r="B84" s="93" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="29" t="s">
@@ -3235,25 +3235,25 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="83"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="30" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="83"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="30" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="84"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="82" t="s">
+      <c r="B88" s="93" t="s">
         <v>133</v>
       </c>
       <c r="C88" s="29" t="s">
@@ -3261,55 +3261,55 @@
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="83"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="30" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="83"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="30" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="83"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="30" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="83"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="83"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="30" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="83"/>
+      <c r="B94" s="96"/>
       <c r="C94" s="30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="83"/>
+      <c r="B95" s="96"/>
       <c r="C95" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="84"/>
+      <c r="B96" s="97"/>
       <c r="C96" s="31" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="93" t="s">
         <v>143</v>
       </c>
       <c r="C97" s="29" t="s">
@@ -3317,13 +3317,13 @@
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="83"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="30" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="84"/>
+      <c r="B99" s="97"/>
       <c r="C99" s="31" t="s">
         <v>146</v>
       </c>
@@ -3350,6 +3350,11 @@
     <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="B97:B99"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B27:B29"/>
@@ -3365,11 +3370,6 @@
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B61:B68"/>
     <mergeCell ref="B69:B75"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="B97:B99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3393,11 +3393,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="66" t="s">
@@ -3532,7 +3532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB8E874-F0EB-409F-B503-F55E9CCC2256}">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3544,15 +3544,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="102" t="s">
@@ -3871,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035788A-103B-476B-BA66-BAD29FA2791E}">
   <dimension ref="A1:AI1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,30 +3905,30 @@
   <sheetData>
     <row r="1" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:35" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
+      <c r="B2" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
     </row>
     <row r="3" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,46 +3936,46 @@
       <c r="C4" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="93"/>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="90"/>
+      <c r="F4" s="110" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="106" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="109" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="110" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="106" t="s">
+      <c r="K4" s="90"/>
+      <c r="L4" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="106" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="O4" s="93"/>
-      <c r="P4" s="106" t="s">
+      <c r="O4" s="90"/>
+      <c r="P4" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="106" t="s">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="S4" s="93"/>
-      <c r="T4" s="107" t="s">
+      <c r="S4" s="90"/>
+      <c r="T4" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="93"/>
-      <c r="V4" s="106" t="s">
+      <c r="U4" s="90"/>
+      <c r="V4" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="W4" s="93"/>
+      <c r="W4" s="90"/>
       <c r="X4" s="40"/>
       <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
@@ -4070,7 +4070,7 @@
       <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="109" t="s">
         <v>196</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -4358,7 +4358,7 @@
       <c r="AI9" s="50"/>
     </row>
     <row r="10" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="109" t="s">
         <v>197</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -4658,7 +4658,7 @@
       <c r="AI13" s="56"/>
     </row>
     <row r="14" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="103" t="s">
         <v>198</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -4950,7 +4950,7 @@
       <c r="AI17" s="56"/>
     </row>
     <row r="18" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="103" t="s">
         <v>199</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -5234,7 +5234,7 @@
       <c r="AI21" s="56"/>
     </row>
     <row r="22" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="106" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -5522,7 +5522,7 @@
       <c r="AI25" s="56"/>
     </row>
     <row r="26" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="106" t="s">
         <v>204</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -5806,7 +5806,7 @@
       <c r="AI29" s="56"/>
     </row>
     <row r="30" spans="2:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="106" t="s">
         <v>205</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -6148,7 +6148,7 @@
       <c r="AI34" s="56"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="106" t="s">
         <v>206</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -42157,11 +42157,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B2:W2"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="R4:S4"/>
@@ -42176,6 +42171,11 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42185,7 +42185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C804068-50D6-4844-9324-2F13BF98E294}">
   <dimension ref="A2:ZL38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -42199,91 +42199,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
     </row>
     <row r="5" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="114" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="J5" s="114" t="s">
+      <c r="J5" s="111" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="111" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="114" t="s">
+      <c r="L5" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="111" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="112" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="62" t="s">
@@ -42305,7 +42305,7 @@
       <c r="M7" s="63"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="115"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="62" t="s">
         <v>197</v>
       </c>
@@ -42323,7 +42323,7 @@
       <c r="M8" s="63"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="62" t="s">
         <v>198</v>
       </c>
@@ -42341,7 +42341,7 @@
       <c r="M9" s="63"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="62" t="s">
         <v>204</v>
       </c>
@@ -42359,7 +42359,7 @@
       <c r="M10" s="63"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="115"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="62" t="s">
         <v>205</v>
       </c>
@@ -42381,7 +42381,7 @@
       <c r="M11" s="63"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="62" t="s">
         <v>226</v>
       </c>
@@ -42403,7 +42403,7 @@
       <c r="M12" s="63"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="112" t="s">
         <v>180</v>
       </c>
       <c r="C13" s="62" t="s">
@@ -42425,7 +42425,7 @@
       <c r="M13" s="63"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="115"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="62" t="s">
         <v>197</v>
       </c>
@@ -42443,7 +42443,7 @@
       <c r="M14" s="63"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="62" t="s">
         <v>198</v>
       </c>
@@ -42461,7 +42461,7 @@
       <c r="M15" s="63"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="115"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="62" t="s">
         <v>199</v>
       </c>
@@ -42481,7 +42481,7 @@
       </c>
     </row>
     <row r="17" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B17" s="115"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="62" t="s">
         <v>203</v>
       </c>
@@ -42499,7 +42499,7 @@
       <c r="M17" s="63"/>
     </row>
     <row r="18" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B18" s="115"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="62" t="s">
         <v>204</v>
       </c>
@@ -42520,7 +42520,7 @@
     </row>
     <row r="19" spans="1:688" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="112" t="s">
         <v>182</v>
       </c>
       <c r="C19" s="62" t="s">
@@ -43215,7 +43215,7 @@
       <c r="ZL19" s="2"/>
     </row>
     <row r="20" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B20" s="115"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="62" t="s">
         <v>198</v>
       </c>
@@ -43234,7 +43234,7 @@
     </row>
     <row r="21" spans="1:688" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="115"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="62" t="s">
         <v>199</v>
       </c>
@@ -43929,7 +43929,7 @@
       <c r="ZL21" s="2"/>
     </row>
     <row r="22" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="114" t="s">
         <v>224</v>
       </c>
       <c r="C22" s="62" t="s">
@@ -43951,7 +43951,7 @@
       <c r="M22" s="63"/>
     </row>
     <row r="23" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="62" t="s">
         <v>197</v>
       </c>
@@ -43969,7 +43969,7 @@
       <c r="M23" s="63"/>
     </row>
     <row r="24" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B24" s="112"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="62" t="s">
         <v>198</v>
       </c>
@@ -43987,7 +43987,7 @@
       <c r="M24" s="63"/>
     </row>
     <row r="25" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B25" s="112"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="62" t="s">
         <v>205</v>
       </c>
@@ -44009,7 +44009,7 @@
       <c r="M25" s="63"/>
     </row>
     <row r="26" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B26" s="113"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="62" t="s">
         <v>226</v>
       </c>
@@ -44031,7 +44031,7 @@
       <c r="M26" s="63"/>
     </row>
     <row r="27" spans="1:688" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="114" t="s">
         <v>184</v>
       </c>
       <c r="C27" s="62" t="s">
@@ -44053,7 +44053,7 @@
       <c r="M27" s="63"/>
     </row>
     <row r="28" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B28" s="112"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="62" t="s">
         <v>197</v>
       </c>
@@ -44073,7 +44073,7 @@
       <c r="M28" s="63"/>
     </row>
     <row r="29" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B29" s="112"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="62" t="s">
         <v>198</v>
       </c>
@@ -44091,7 +44091,7 @@
       <c r="M29" s="63"/>
     </row>
     <row r="30" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B30" s="112"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="62" t="s">
         <v>199</v>
       </c>
@@ -44111,7 +44111,7 @@
       </c>
     </row>
     <row r="31" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B31" s="112"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="62" t="s">
         <v>204</v>
       </c>
@@ -44127,7 +44127,7 @@
       <c r="M31" s="63"/>
     </row>
     <row r="32" spans="1:688" x14ac:dyDescent="0.25">
-      <c r="B32" s="113"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="62" t="s">
         <v>205</v>
       </c>
@@ -44149,7 +44149,7 @@
       <c r="M32" s="63"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="114" t="s">
         <v>225</v>
       </c>
       <c r="C33" s="62" t="s">
@@ -44171,7 +44171,7 @@
       <c r="M33" s="63"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="112"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="62" t="s">
         <v>197</v>
       </c>
@@ -44191,7 +44191,7 @@
       <c r="M34" s="63"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="112"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="62" t="s">
         <v>198</v>
       </c>
@@ -44209,7 +44209,7 @@
       <c r="M35" s="63"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="112"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="62" t="s">
         <v>199</v>
       </c>
@@ -44229,7 +44229,7 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="112"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="62" t="s">
         <v>203</v>
       </c>
@@ -44253,7 +44253,7 @@
       <c r="M37" s="63"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="113"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="62" t="s">
         <v>205</v>
       </c>
@@ -44276,6 +44276,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="B7:B12"/>
@@ -44291,11 +44296,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44305,8 +44305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ED6F9E-B76E-4AE7-8233-4C0623D97BCF}">
   <dimension ref="B2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44316,11 +44316,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
@@ -44510,11 +44510,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="B11:B12"/>
@@ -44522,6 +44517,11 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
